--- a/derivatives/df_TPJ.xlsx
+++ b/derivatives/df_TPJ.xlsx
@@ -19,16 +19,16 @@
     <t>sub</t>
   </si>
   <si>
-    <t>aTPJ_R-P_F-C</t>
+    <t>aTPJ_R_P_F_C</t>
   </si>
   <si>
-    <t>aTPJ_R-P_F-S</t>
+    <t>aTPJ_R_P_F_S</t>
   </si>
   <si>
-    <t>pTPJ_R-P_F-C</t>
+    <t>pTPJ_R_P_F_C</t>
   </si>
   <si>
-    <t>pTPJ_R-P_F-S</t>
+    <t>pTPJ_R_P_F_S</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,325 +819,359 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>3116</v>
+        <v>1303</v>
       </c>
       <c r="B26">
-        <v>-0.23925212793</v>
+        <v>0.0829808524</v>
       </c>
       <c r="C26">
-        <v>-0.04815396129999999</v>
+        <v>-0.02110848941999999</v>
       </c>
       <c r="D26">
-        <v>0.07760388448</v>
+        <v>-0.00618960030999996</v>
       </c>
       <c r="E26">
-        <v>0.03052608797000001</v>
+        <v>-0.16397736683</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>3122</v>
+        <v>3116</v>
       </c>
       <c r="B27">
-        <v>0.109689564443</v>
+        <v>-0.23925212793</v>
       </c>
       <c r="C27">
-        <v>-0.14174650074</v>
+        <v>-0.04815396129999999</v>
       </c>
       <c r="D27">
-        <v>0.03607110585000001</v>
+        <v>0.07760388448</v>
       </c>
       <c r="E27">
-        <v>-0.06322449183000001</v>
+        <v>0.03052608797000001</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="B28">
-        <v>0.05503980562399999</v>
+        <v>0.109689564443</v>
       </c>
       <c r="C28">
-        <v>0.05351692240399999</v>
+        <v>-0.14174650074</v>
       </c>
       <c r="D28">
-        <v>0.04303667791</v>
+        <v>0.03607110585000001</v>
       </c>
       <c r="E28">
-        <v>0.01207597983</v>
+        <v>-0.06322449183000001</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>3140</v>
+        <v>3125</v>
       </c>
       <c r="B29">
-        <v>0.024945656147</v>
+        <v>0.05503980562399999</v>
       </c>
       <c r="C29">
-        <v>-0.05048287712</v>
+        <v>0.05351692240399999</v>
       </c>
       <c r="D29">
-        <v>-0.05284240237</v>
+        <v>0.04303667791</v>
       </c>
       <c r="E29">
-        <v>-0.21185441844</v>
+        <v>0.01207597983</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="B30">
-        <v>0.4650902345</v>
+        <v>0.024945656147</v>
       </c>
       <c r="C30">
-        <v>0.48581754499</v>
+        <v>-0.05048287712</v>
       </c>
       <c r="D30">
-        <v>0.4744933755090001</v>
+        <v>-0.05284240237</v>
       </c>
       <c r="E30">
-        <v>0.6022480252600001</v>
+        <v>-0.21185441844</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>3152</v>
+        <v>3143</v>
       </c>
       <c r="B31">
-        <v>0.05086455533099998</v>
+        <v>0.4650902345</v>
       </c>
       <c r="C31">
-        <v>-0.1050420478</v>
+        <v>0.48581754499</v>
       </c>
       <c r="D31">
-        <v>0.16841803528</v>
+        <v>0.4744933755090001</v>
       </c>
       <c r="E31">
-        <v>0.06065092225</v>
+        <v>0.6022480252600001</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>3166</v>
+        <v>3152</v>
       </c>
       <c r="B32">
-        <v>0.24976355732</v>
+        <v>0.05086455533099998</v>
       </c>
       <c r="C32">
-        <v>0.15245342936</v>
+        <v>-0.1050420478</v>
       </c>
       <c r="D32">
-        <v>0.40723169232</v>
+        <v>0.16841803528</v>
       </c>
       <c r="E32">
-        <v>0.03794198596000001</v>
+        <v>0.06065092225</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="B33">
-        <v>0.07748295347</v>
+        <v>0.24976355732</v>
       </c>
       <c r="C33">
-        <v>0.06677047483</v>
+        <v>0.15245342936</v>
       </c>
       <c r="D33">
-        <v>0.35918305491</v>
+        <v>0.40723169232</v>
       </c>
       <c r="E33">
-        <v>0.41602414027</v>
+        <v>0.03794198596000001</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="B34">
-        <v>-0.19098126166</v>
+        <v>0.07748295347</v>
       </c>
       <c r="C34">
-        <v>0.05770407405000001</v>
+        <v>0.06677047483</v>
       </c>
       <c r="D34">
-        <v>0.17458624865</v>
+        <v>0.35918305491</v>
       </c>
       <c r="E34">
-        <v>0.08707896276999999</v>
+        <v>0.41602414027</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="B35">
-        <v>0.17901112546</v>
+        <v>-0.19098126166</v>
       </c>
       <c r="C35">
-        <v>0.04623594425999999</v>
+        <v>0.05770407405000001</v>
       </c>
       <c r="D35">
-        <v>0.138281604254</v>
+        <v>0.17458624865</v>
       </c>
       <c r="E35">
-        <v>-0.029414658896</v>
+        <v>0.08707896276999999</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="B36">
-        <v>0.06847420598999999</v>
+        <v>0.17901112546</v>
       </c>
       <c r="C36">
-        <v>0.01276505114</v>
+        <v>0.04623594425999999</v>
       </c>
       <c r="D36">
-        <v>-0.01235817266999999</v>
+        <v>0.138281604254</v>
       </c>
       <c r="E36">
-        <v>0.05253338749000001</v>
+        <v>-0.029414658896</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>3189</v>
+        <v>3176</v>
       </c>
       <c r="B37">
-        <v>-0.048733674896</v>
+        <v>0.06847420598999999</v>
       </c>
       <c r="C37">
-        <v>0.08989506823400001</v>
+        <v>0.01276505114</v>
       </c>
       <c r="D37">
-        <v>0.57289901046</v>
+        <v>-0.01235817266999999</v>
       </c>
       <c r="E37">
-        <v>0.371762889812</v>
+        <v>0.05253338749000001</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="B38">
-        <v>0.16345618173</v>
+        <v>-0.048733674896</v>
       </c>
       <c r="C38">
-        <v>-0.09382702042</v>
+        <v>0.08989506823400001</v>
       </c>
       <c r="D38">
-        <v>0.01973975812000001</v>
+        <v>0.57289901046</v>
       </c>
       <c r="E38">
-        <v>-0.003729203009999987</v>
+        <v>0.371762889812</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>3199</v>
+        <v>3190</v>
       </c>
       <c r="B39">
-        <v>0.22549663369</v>
+        <v>0.16345618173</v>
       </c>
       <c r="C39">
-        <v>0.20531194771</v>
+        <v>-0.09382702042</v>
       </c>
       <c r="D39">
-        <v>0.177746595654</v>
+        <v>0.01973975812000001</v>
       </c>
       <c r="E39">
-        <v>0.22842368635</v>
+        <v>-0.003729203009999987</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="B40">
-        <v>-0.23717310821</v>
+        <v>0.22549663369</v>
       </c>
       <c r="C40">
-        <v>-0.05773890540000003</v>
+        <v>0.20531194771</v>
       </c>
       <c r="D40">
-        <v>-0.3225002648899999</v>
+        <v>0.177746595654</v>
       </c>
       <c r="E40">
-        <v>0.05455065716000002</v>
+        <v>0.22842368635</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>3206</v>
+        <v>3200</v>
       </c>
       <c r="B41">
-        <v>0.04095031303699999</v>
+        <v>-0.23717310821</v>
       </c>
       <c r="C41">
-        <v>-0.001821437773000006</v>
+        <v>-0.05773890540000003</v>
       </c>
       <c r="D41">
-        <v>-0.10096501849</v>
+        <v>-0.3225002648899999</v>
       </c>
       <c r="E41">
-        <v>-0.04490134692</v>
+        <v>0.05455065716000002</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>3210</v>
+        <v>3206</v>
       </c>
       <c r="B42">
-        <v>0.055935082787</v>
+        <v>0.04095031303699999</v>
       </c>
       <c r="C42">
-        <v>-0.07890800592299999</v>
+        <v>-0.001821437773000006</v>
       </c>
       <c r="D42">
-        <v>0.43603451893</v>
+        <v>-0.10096501849</v>
       </c>
       <c r="E42">
-        <v>-0.10335988246</v>
+        <v>-0.04490134692</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="B43">
-        <v>0.12417176385</v>
+        <v>0.055935082787</v>
       </c>
       <c r="C43">
-        <v>0.01857846904000001</v>
+        <v>-0.07890800592299999</v>
       </c>
       <c r="D43">
-        <v>-0.1896221339</v>
+        <v>0.43603451893</v>
       </c>
       <c r="E43">
-        <v>-0.18598617106</v>
+        <v>-0.10335988246</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
+        <v>3212</v>
+      </c>
+      <c r="B44">
+        <v>0.12417176385</v>
+      </c>
+      <c r="C44">
+        <v>0.01857846904000001</v>
+      </c>
+      <c r="D44">
+        <v>-0.1896221339</v>
+      </c>
+      <c r="E44">
+        <v>-0.18598617106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
         <v>3218</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>0.09012457586999999</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>0.203674259068</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>-0.14879623426</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>0.04727141383000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>3220</v>
+      </c>
+      <c r="B46">
+        <v>0.07862091610000001</v>
+      </c>
+      <c r="C46">
+        <v>-0.08206761560000002</v>
+      </c>
+      <c r="D46">
+        <v>0.3183748924300001</v>
+      </c>
+      <c r="E46">
+        <v>-0.04529498433000001</v>
       </c>
     </row>
   </sheetData>

--- a/derivatives/df_TPJ.xlsx
+++ b/derivatives/df_TPJ.xlsx
@@ -1,60 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>sub</t>
-  </si>
-  <si>
-    <t>aTPJ_R_P_F_C</t>
-  </si>
-  <si>
-    <t>aTPJ_R_P_F_S</t>
-  </si>
-  <si>
-    <t>pTPJ_R_P_F_C</t>
-  </si>
-  <si>
-    <t>pTPJ_R_P_F_S</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,796 +420,812 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>aTPJ_R_P_F_C</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>aTPJ_R_P_F_S</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pTPJ_R_P_F_C</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pTPJ_R_P_F_S</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1001</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>-0.13939654263</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>-0.18231681118</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.26272256414</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.05973565502</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>1006</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>-0.17328596735</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>-0.050368882384</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.23191736691</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.11307761141</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>1009</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>-0.03906763227999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.02563965469000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>-0.246696230121</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>-0.176952900811</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>1010</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.62183625202</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.57324145078</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.6526268363000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.8960835551</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>1011</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.2119603145</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.14814260487</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.07661469315</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.15600239151</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>1012</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0.151157265188</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.15689637833</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.18695906128</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.31274318808</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>1013</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0.240170227869</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.29668888549</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.415037557689</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.163998077799</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>1015</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>-0.05453498682600001</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>-0.111832517196</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.08443940761</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>-0.10491522302</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>1016</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>-0.08825085176000001</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>-0.18194790932</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.313385182264</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.25530358984</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>1019</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>-0.003419283689999997</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>0.22976594642</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>0.40101524311</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>0.3229165216</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>1021</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>-0.06692955585</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>0.05971162897999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>-0.016232596102</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>0.05486340046999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>1242</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>-0.206830573112</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>-0.2828212012</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>-0.339506554724</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>-0.07457250182400001</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>1243</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>-0.1117226827</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>-0.09078307284000001</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>0.02458845741000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>0.02182197386800001</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>1244</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>-0.03183543625400001</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>-0.02243051434400001</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>0.02503293111999998</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>-0.06244577448500001</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>1248</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>-0.17592993614</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>-0.011230310946</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>-0.06581841461000001</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>-0.02556784284000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>1249</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>0.02593901114200001</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0.29537224415</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>0.11943368788</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>0.42008792561</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>1251</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>0.141499746308</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>-0.112243176252</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>0.50375020435</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>-0.06661354722999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>1255</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>-0.17285099835</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0.03277743085</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>-0.21593248069</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>0.142669256298</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>1276</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>0.07107743651000001</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0.06345486423</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0.09215571447000001</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>0.05727532834999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>1282</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>0.61713773761</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0.3862909784</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>0.4706165515999999</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>0.2884094282999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>1286</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0.16396676674</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0.19579435699</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>0.040415609241</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>0.02888176305899999</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>1294</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>-0.08388872065</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>-0.01554481037</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>0.11692613834</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>-0.22413878856</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>1301</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>-0.10475049521</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>-0.08742771282999999</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>0.084688508574</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>-0.0007875617600000134</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>1302</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>-0.08314334208999999</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0.08096183644190001</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>-0.004322892549999985</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>0.01562437774</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>1303</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>0.0829808524</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>-0.02110848941999999</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>-0.00618960030999996</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>-0.16397736683</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>3116</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>-0.23925212793</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>-0.04815396129999999</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>0.07760388448</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>0.03052608797000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>3122</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>0.109689564443</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>-0.14174650074</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>0.03607110585000001</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>-0.06322449183000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>3125</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>0.05503980562399999</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0.05351692240399999</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>0.04303667791</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>0.01207597983</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>3140</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>0.024945656147</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>-0.05048287712</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>-0.05284240237</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>-0.21185441844</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>3143</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>0.4650902345</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0.48581754499</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>0.4744933755090001</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>0.6022480252600001</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>3152</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>0.05086455533099998</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>-0.1050420478</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>0.16841803528</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>0.06065092225</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>3166</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>0.24976355732</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0.15245342936</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>0.40723169232</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>0.03794198596000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>3167</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>0.07748295347</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>0.06677047483</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>0.35918305491</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>0.41602414027</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" t="n">
         <v>3170</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>-0.19098126166</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>0.05770407405000001</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>0.17458624865</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>0.08707896276999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>3173</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>0.17901112546</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>0.04623594425999999</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>0.138281604254</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>-0.029414658896</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" t="n">
         <v>3176</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>0.06847420598999999</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0.01276505114</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>-0.01235817266999999</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>0.05253338749000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" t="n">
         <v>3189</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>-0.048733674896</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>0.08989506823400001</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>0.57289901046</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>0.371762889812</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" t="n">
         <v>3190</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>0.16345618173</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>-0.09382702042</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>0.01973975812000001</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>-0.003729203009999987</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" t="n">
         <v>3199</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>0.22549663369</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>0.20531194771</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>0.177746595654</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>0.22842368635</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" t="n">
         <v>3200</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>-0.23717310821</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>-0.05773890540000003</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>-0.3225002648899999</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>0.05455065716000002</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" t="n">
         <v>3206</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>0.04095031303699999</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>-0.001821437773000006</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>-0.10096501849</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>-0.04490134692</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="n">
         <v>3210</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>0.055935082787</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>-0.07890800592299999</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>0.43603451893</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>-0.10335988246</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="n">
         <v>3212</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>0.12417176385</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>0.01857846904000001</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>-0.1896221339</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>-0.18598617106</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" t="n">
         <v>3218</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>0.09012457586999999</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>0.203674259068</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>-0.14879623426</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>0.04727141383000003</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" t="n">
         <v>3220</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>0.07862091610000001</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>-0.08206761560000002</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>0.3183748924300001</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>-0.04529498433000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>